--- a/quote-pack/power/power-bom.xlsx
+++ b/quote-pack/power/power-bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="217">
   <si>
     <t>Line no in power-v4 BOM</t>
   </si>
@@ -142,12 +142,21 @@
     <t>sr-cn-camcon2w</t>
   </si>
   <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>21-2448</t>
+  </si>
+  <si>
     <t>Pluggable terminal block 2way 7.5mm pitch male horiz</t>
   </si>
   <si>
     <t>J13, J11, J10, J9, J12, J8</t>
   </si>
   <si>
+    <t>low stock (want 158, while only 237 are available)</t>
+  </si>
+  <si>
     <t>sr-cn-camcon2w-5mm</t>
   </si>
   <si>
@@ -256,6 +265,15 @@
     <t>D5</t>
   </si>
   <si>
+    <t>sr-fan-40-10-12v</t>
+  </si>
+  <si>
+    <t>40mmx40mmx10mm axial fan 12V</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
     <t>sr-fb-200m-1k-0402</t>
   </si>
   <si>
@@ -355,6 +373,9 @@
     <t>sr-ic-tps62125dsg</t>
   </si>
   <si>
+    <t>595-TPS62125DSGT</t>
+  </si>
+  <si>
     <t>TPS62125DSG step-down DC/DC converter synchronous 17V 300mA</t>
   </si>
   <si>
@@ -422,6 +443,9 @@
   </si>
   <si>
     <t>X1</t>
+  </si>
+  <si>
+    <t>awaiting delivery</t>
   </si>
   <si>
     <t>sr-r-10-0402</t>
@@ -980,19 +1004,22 @@
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3882391.0</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="2">
         <v>6.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1000,7 +1027,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
@@ -1012,10 +1039,10 @@
         <v>1.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1023,7 +1050,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
@@ -1035,10 +1062,10 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1046,7 +1073,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
@@ -1058,10 +1085,10 @@
         <v>1.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -1069,7 +1096,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
@@ -1081,10 +1108,10 @@
         <v>3.0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -1092,7 +1119,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
@@ -1104,10 +1131,10 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1115,7 +1142,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
@@ -1127,10 +1154,10 @@
         <v>1.0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -1138,7 +1165,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -1150,10 +1177,10 @@
         <v>1.0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -1161,7 +1188,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -1173,10 +1200,10 @@
         <v>3.0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -1184,7 +1211,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -1196,10 +1223,10 @@
         <v>1.0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -1207,7 +1234,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -1219,10 +1246,10 @@
         <v>9.0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -1230,7 +1257,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -1242,10 +1269,10 @@
         <v>1.0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1253,7 +1280,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -1265,432 +1292,435 @@
         <v>1.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="2">
-        <v>1669673.0</v>
+        <v>1924856.0</v>
       </c>
       <c r="E25" s="2">
         <v>1.0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="2">
-        <v>2053836.0</v>
+        <v>1669673.0</v>
       </c>
       <c r="E26" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="2">
-        <v>2580009.0</v>
+        <v>2053836.0</v>
       </c>
       <c r="E27" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="2">
-        <v>1596988.0</v>
+        <v>2580009.0</v>
       </c>
       <c r="E28" s="2">
         <v>2.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="2">
-        <v>1822228.0</v>
+        <v>1596988.0</v>
       </c>
       <c r="E29" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="2">
-        <v>2295989.0</v>
+        <v>1822228.0</v>
       </c>
       <c r="E30" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="2">
-        <v>1627203.0</v>
+        <v>2295989.0</v>
       </c>
       <c r="E31" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1627203.0</v>
       </c>
       <c r="E32" s="2">
         <v>1.0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1899014.0</v>
+        <v>109</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E33" s="2">
         <v>1.0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="2">
-        <v>2361237.0</v>
+        <v>1899014.0</v>
       </c>
       <c r="E34" s="2">
         <v>1.0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="2">
-        <v>2144287.0</v>
+        <v>2361237.0</v>
       </c>
       <c r="E35" s="2">
         <v>1.0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E37" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2">
         <v>1.0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1318243.0</v>
+        <v>109</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E39" s="2">
         <v>1.0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>1686079.0</v>
+        <v>1318243.0</v>
       </c>
       <c r="E40" s="2">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="2">
-        <v>1192513.0</v>
+        <v>1686079.0</v>
       </c>
       <c r="E41" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1192513.0</v>
       </c>
       <c r="E42" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1699,21 +1729,21 @@
         <v>9</v>
       </c>
       <c r="E43" s="2">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1722,21 +1752,21 @@
         <v>9</v>
       </c>
       <c r="E44" s="2">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1745,21 +1775,21 @@
         <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1768,21 +1798,21 @@
         <v>9</v>
       </c>
       <c r="E46" s="2">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1794,18 +1824,18 @@
         <v>1.0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1817,18 +1847,18 @@
         <v>1.0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1837,21 +1867,21 @@
         <v>9</v>
       </c>
       <c r="E49" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1863,64 +1893,64 @@
         <v>6.0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1292474.0</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E51" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1292474.0</v>
       </c>
       <c r="E52" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
@@ -1929,21 +1959,21 @@
         <v>9</v>
       </c>
       <c r="E53" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1952,21 +1982,21 @@
         <v>9</v>
       </c>
       <c r="E54" s="2">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1975,21 +2005,21 @@
         <v>9</v>
       </c>
       <c r="E55" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1998,21 +2028,21 @@
         <v>9</v>
       </c>
       <c r="E56" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -2021,21 +2051,21 @@
         <v>9</v>
       </c>
       <c r="E57" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -2044,21 +2074,21 @@
         <v>9</v>
       </c>
       <c r="E58" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -2067,21 +2097,21 @@
         <v>9</v>
       </c>
       <c r="E59" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -2093,130 +2123,149 @@
         <v>1.0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="2">
-        <v>9235418.0</v>
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E61" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D62" s="2">
-        <v>1770151.0</v>
+        <v>9235418.0</v>
       </c>
       <c r="E62" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="2">
-        <v>1435768.0</v>
+        <v>1770151.0</v>
       </c>
       <c r="E63" s="2">
         <v>1.0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="2">
-        <v>1435769.0</v>
+        <v>1435768.0</v>
       </c>
       <c r="E64" s="2">
         <v>1.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D65" s="2">
-        <v>1611803.0</v>
+        <v>1435769.0</v>
       </c>
       <c r="E65" s="2">
         <v>1.0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="A66" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1611803.0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="67">
       <c r="F67" s="3"/>
